--- a/03_Trackers/inversiones.xlsx
+++ b/03_Trackers/inversiones.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Inversiones" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,10 +16,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
-  </numFmts>
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -58,12 +55,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -429,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -455,82 +451,8 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Monto_ARS</t>
+          <t>Monto</t>
         </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="n">
-        <v>45853</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>SPY</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Compra</t>
-        </is>
-      </c>
-      <c r="D2" t="n">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>45856</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>AAPL</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Compra</t>
-        </is>
-      </c>
-      <c r="D3" t="n">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>45858</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>MSFT</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Compra</t>
-        </is>
-      </c>
-      <c r="D4" t="n">
-        <v>15000</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>2025-07-23</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>SPY</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Compra</t>
-        </is>
-      </c>
-      <c r="D5" t="n">
-        <v>125234524356</v>
       </c>
     </row>
   </sheetData>
